--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1732857.850252223</v>
+        <v>1730363.725538773</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11064292.9834682</v>
+        <v>11064292.98346822</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9998238.934168831</v>
+        <v>9998238.934168829</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.4976756101891</v>
+        <v>339.4976756101886</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>311.4468755673915</v>
+        <v>311.446875567391</v>
       </c>
       <c r="E11" t="n">
-        <v>338.6942040189703</v>
+        <v>338.6942040189698</v>
       </c>
       <c r="F11" t="n">
-        <v>363.63987968842</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>244.7657209394021</v>
+        <v>291.0824065589164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>251.3715983340285</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.95159573488382</v>
       </c>
       <c r="T11" t="n">
-        <v>160.6818040863287</v>
+        <v>160.6818040863282</v>
       </c>
       <c r="U11" t="n">
-        <v>207.7590059056105</v>
+        <v>207.75900590561</v>
       </c>
       <c r="V11" t="n">
-        <v>284.5160924168434</v>
+        <v>284.5160924168429</v>
       </c>
       <c r="W11" t="n">
-        <v>306.0048026641215</v>
+        <v>306.004802664121</v>
       </c>
       <c r="X11" t="n">
-        <v>326.4949346251776</v>
+        <v>326.4949346251771</v>
       </c>
       <c r="Y11" t="n">
-        <v>343.0017726027621</v>
+        <v>343.0017726027615</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.5958141286458</v>
+        <v>136.5958141286453</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8706055921055</v>
+        <v>124.0106550453358</v>
       </c>
       <c r="D13" t="n">
-        <v>105.3793069649209</v>
+        <v>105.3793069649203</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1977965932777</v>
+        <v>103.1977965932772</v>
       </c>
       <c r="F13" t="n">
-        <v>102.1848819696398</v>
+        <v>102.1848819696392</v>
       </c>
       <c r="G13" t="n">
-        <v>122.7896422057368</v>
+        <v>122.7896422057362</v>
       </c>
       <c r="H13" t="n">
-        <v>101.5188488610293</v>
+        <v>12.37879940781233</v>
       </c>
       <c r="I13" t="n">
-        <v>53.11625435654664</v>
+        <v>53.11625435654609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.69598661675587</v>
+        <v>45.69598661675532</v>
       </c>
       <c r="S13" t="n">
-        <v>146.5328592781504</v>
+        <v>146.5328592781499</v>
       </c>
       <c r="T13" t="n">
-        <v>176.3127832228777</v>
+        <v>176.3127832228772</v>
       </c>
       <c r="U13" t="n">
-        <v>242.9756721523214</v>
+        <v>242.9756721523209</v>
       </c>
       <c r="V13" t="n">
-        <v>208.9014772705365</v>
+        <v>208.901477270536</v>
       </c>
       <c r="W13" t="n">
-        <v>243.2868322832995</v>
+        <v>243.286832283299</v>
       </c>
       <c r="X13" t="n">
-        <v>182.4734893357457</v>
+        <v>182.4734893357451</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.3484872988033</v>
+        <v>175.3484872988028</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>339.4976756101891</v>
+        <v>339.4976756101886</v>
       </c>
       <c r="C14" t="n">
-        <v>322.0367257177161</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>311.4468755673915</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>338.6942040189698</v>
       </c>
       <c r="F14" t="n">
-        <v>363.63987968842</v>
+        <v>363.6398796884195</v>
       </c>
       <c r="G14" t="n">
-        <v>367.685559600162</v>
+        <v>367.6855596001615</v>
       </c>
       <c r="H14" t="n">
-        <v>251.371598334029</v>
+        <v>251.3715983340284</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.95159573488439</v>
+        <v>65.95159573488382</v>
       </c>
       <c r="T14" t="n">
-        <v>160.6818040863287</v>
+        <v>160.6818040863282</v>
       </c>
       <c r="U14" t="n">
-        <v>207.7590059056105</v>
+        <v>207.75900590561</v>
       </c>
       <c r="V14" t="n">
-        <v>284.5160924168434</v>
+        <v>284.5160924168429</v>
       </c>
       <c r="W14" t="n">
-        <v>306.0048026641215</v>
+        <v>177.2086455018461</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>326.4949346251771</v>
       </c>
       <c r="Y14" t="n">
-        <v>245.9111527995203</v>
+        <v>343.0017726027615</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.5958141286458</v>
+        <v>136.5958141286453</v>
       </c>
       <c r="C16" t="n">
-        <v>124.0106550453364</v>
+        <v>124.0106550453358</v>
       </c>
       <c r="D16" t="n">
-        <v>105.3793069649209</v>
+        <v>105.3793069649203</v>
       </c>
       <c r="E16" t="n">
-        <v>103.1977965932777</v>
+        <v>103.1977965932772</v>
       </c>
       <c r="F16" t="n">
-        <v>102.1848819696398</v>
+        <v>13.04483251642169</v>
       </c>
       <c r="G16" t="n">
-        <v>122.7896422057368</v>
+        <v>122.7896422057362</v>
       </c>
       <c r="H16" t="n">
-        <v>101.5188488610293</v>
+        <v>101.5188488610288</v>
       </c>
       <c r="I16" t="n">
-        <v>53.11625435654665</v>
+        <v>53.11625435654608</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.69598661675588</v>
+        <v>45.69598661675532</v>
       </c>
       <c r="S16" t="n">
-        <v>146.5328592781504</v>
+        <v>146.5328592781499</v>
       </c>
       <c r="T16" t="n">
-        <v>176.3127832228777</v>
+        <v>176.3127832228772</v>
       </c>
       <c r="U16" t="n">
-        <v>242.9756721523214</v>
+        <v>242.9756721523209</v>
       </c>
       <c r="V16" t="n">
-        <v>208.9014772705365</v>
+        <v>208.901477270536</v>
       </c>
       <c r="W16" t="n">
-        <v>154.1467828300682</v>
+        <v>243.286832283299</v>
       </c>
       <c r="X16" t="n">
-        <v>182.4734893357457</v>
+        <v>182.4734893357451</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.3484872988033</v>
+        <v>175.3484872988028</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>292.5225389915965</v>
+        <v>292.5225389915959</v>
       </c>
       <c r="C17" t="n">
-        <v>275.0615890991235</v>
+        <v>275.0615890991229</v>
       </c>
       <c r="D17" t="n">
-        <v>264.4717389487989</v>
+        <v>264.4717389487982</v>
       </c>
       <c r="E17" t="n">
-        <v>291.7190674003778</v>
+        <v>291.7190674003771</v>
       </c>
       <c r="F17" t="n">
-        <v>212.0368972827341</v>
+        <v>316.6647430698267</v>
       </c>
       <c r="G17" t="n">
-        <v>320.7104229815694</v>
+        <v>216.0825771944849</v>
       </c>
       <c r="H17" t="n">
-        <v>204.3964617154365</v>
+        <v>204.3964617154358</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.97645911629184</v>
+        <v>18.97645911629115</v>
       </c>
       <c r="T17" t="n">
-        <v>113.7066674677361</v>
+        <v>113.7066674677355</v>
       </c>
       <c r="U17" t="n">
-        <v>160.7838692870179</v>
+        <v>160.7838692870173</v>
       </c>
       <c r="V17" t="n">
-        <v>237.5409557982509</v>
+        <v>237.5409557982502</v>
       </c>
       <c r="W17" t="n">
-        <v>259.029666045529</v>
+        <v>259.0296660455283</v>
       </c>
       <c r="X17" t="n">
-        <v>279.519798006585</v>
+        <v>279.5197980065843</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.0266359841696</v>
+        <v>296.0266359841689</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.62067751005326</v>
+        <v>89.62067751005262</v>
       </c>
       <c r="C19" t="n">
-        <v>77.03551842674379</v>
+        <v>77.03551842674315</v>
       </c>
       <c r="D19" t="n">
-        <v>58.40417034632831</v>
+        <v>58.40417034632767</v>
       </c>
       <c r="E19" t="n">
-        <v>56.22265997468513</v>
+        <v>56.22265997468449</v>
       </c>
       <c r="F19" t="n">
-        <v>55.2097453510472</v>
+        <v>55.20974535104656</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>75.81450558714354</v>
       </c>
       <c r="H19" t="n">
-        <v>54.54371224243675</v>
+        <v>54.5437122424361</v>
       </c>
       <c r="I19" t="n">
-        <v>6.141117737954076</v>
+        <v>6.141117737953415</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>99.55772265955788</v>
+        <v>99.55772265955721</v>
       </c>
       <c r="T19" t="n">
-        <v>129.3376466042852</v>
+        <v>129.3376466042845</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>214.7484382898945</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>196.311695664707</v>
+        <v>196.3116956647063</v>
       </c>
       <c r="X19" t="n">
-        <v>135.4983527171531</v>
+        <v>188.3204503551121</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.3733506802108</v>
+        <v>128.3733506802101</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.8946932045028</v>
+        <v>292.5225389915959</v>
       </c>
       <c r="C20" t="n">
-        <v>275.0615890991235</v>
+        <v>275.0615890991229</v>
       </c>
       <c r="D20" t="n">
-        <v>264.4717389487989</v>
+        <v>264.4717389487982</v>
       </c>
       <c r="E20" t="n">
-        <v>291.7190674003778</v>
+        <v>291.7190674003771</v>
       </c>
       <c r="F20" t="n">
-        <v>316.6647430698274</v>
+        <v>316.6647430698267</v>
       </c>
       <c r="G20" t="n">
-        <v>320.7104229815694</v>
+        <v>216.0825771944843</v>
       </c>
       <c r="H20" t="n">
-        <v>204.3964617154364</v>
+        <v>204.3964617154358</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.97645911629181</v>
+        <v>18.97645911629115</v>
       </c>
       <c r="T20" t="n">
-        <v>113.7066674677361</v>
+        <v>113.7066674677355</v>
       </c>
       <c r="U20" t="n">
-        <v>160.7838692870179</v>
+        <v>160.7838692870173</v>
       </c>
       <c r="V20" t="n">
-        <v>237.5409557982509</v>
+        <v>237.5409557982502</v>
       </c>
       <c r="W20" t="n">
-        <v>259.029666045529</v>
+        <v>259.0296660455283</v>
       </c>
       <c r="X20" t="n">
-        <v>279.519798006585</v>
+        <v>279.5197980065843</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.0266359841696</v>
+        <v>296.0266359841689</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.62067751005326</v>
+        <v>89.62067751005262</v>
       </c>
       <c r="C22" t="n">
-        <v>77.03551842674379</v>
+        <v>77.03551842674315</v>
       </c>
       <c r="D22" t="n">
-        <v>109.9471179824424</v>
+        <v>58.40417034632767</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>56.22265997468449</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>106.752692987169</v>
       </c>
       <c r="G22" t="n">
-        <v>75.81450558714418</v>
+        <v>75.81450558714354</v>
       </c>
       <c r="H22" t="n">
-        <v>54.54371224243674</v>
+        <v>54.5437122424361</v>
       </c>
       <c r="I22" t="n">
-        <v>6.141117737954069</v>
+        <v>6.141117737953415</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>99.55772265955787</v>
+        <v>99.55772265955721</v>
       </c>
       <c r="T22" t="n">
-        <v>129.3376466042852</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>196.0005355337288</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>161.926340651944</v>
+        <v>161.9263406519433</v>
       </c>
       <c r="W22" t="n">
-        <v>196.311695664707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>135.4983527171525</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.3733506802108</v>
+        <v>128.3733506802101</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>292.5225389915965</v>
+        <v>292.5225389915959</v>
       </c>
       <c r="C23" t="n">
-        <v>275.0615890991235</v>
+        <v>275.0615890991229</v>
       </c>
       <c r="D23" t="n">
-        <v>264.4717389487989</v>
+        <v>264.4717389487982</v>
       </c>
       <c r="E23" t="n">
-        <v>291.7190674003778</v>
+        <v>291.7190674003771</v>
       </c>
       <c r="F23" t="n">
-        <v>316.6647430698274</v>
+        <v>316.6647430698267</v>
       </c>
       <c r="G23" t="n">
-        <v>320.7104229815694</v>
+        <v>320.7104229815687</v>
       </c>
       <c r="H23" t="n">
-        <v>204.3964617154365</v>
+        <v>204.3964617154358</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.97645911629181</v>
+        <v>18.97645911629115</v>
       </c>
       <c r="T23" t="n">
-        <v>113.7066674677361</v>
+        <v>113.7066674677355</v>
       </c>
       <c r="U23" t="n">
-        <v>160.7838692870179</v>
+        <v>160.7838692870173</v>
       </c>
       <c r="V23" t="n">
-        <v>237.5409557982509</v>
+        <v>237.5409557982502</v>
       </c>
       <c r="W23" t="n">
-        <v>259.029666045529</v>
+        <v>259.0296660455283</v>
       </c>
       <c r="X23" t="n">
-        <v>279.519798006585</v>
+        <v>279.5197980065843</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.0266359841696</v>
+        <v>296.0266359841689</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.62067751005326</v>
+        <v>89.62067751005262</v>
       </c>
       <c r="C25" t="n">
-        <v>77.03551842674379</v>
+        <v>77.03551842674315</v>
       </c>
       <c r="D25" t="n">
-        <v>58.40417034632831</v>
+        <v>58.40417034632767</v>
       </c>
       <c r="E25" t="n">
-        <v>56.22265997468513</v>
+        <v>56.22265997468449</v>
       </c>
       <c r="F25" t="n">
-        <v>106.7526929871612</v>
+        <v>55.20974535104656</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>75.81450558714354</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>54.5437122424361</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>6.141117737953415</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>99.55772265955787</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>129.3376466042852</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>196.0005355337288</v>
+        <v>247.5434831698506</v>
       </c>
       <c r="V25" t="n">
-        <v>161.926340651944</v>
+        <v>161.9263406519433</v>
       </c>
       <c r="W25" t="n">
-        <v>196.311695664707</v>
+        <v>196.3116956647063</v>
       </c>
       <c r="X25" t="n">
-        <v>135.4983527171531</v>
+        <v>135.4983527171525</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.3733506802108</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>82.96067883732246</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2606,10 +2606,10 @@
         <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>132.1699627848492</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2795,19 +2795,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>289.4026816310661</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>135.1536829583726</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>293.7091468163446</v>
+        <v>293.709146816343</v>
       </c>
       <c r="C32" t="n">
-        <v>276.2481969238716</v>
+        <v>276.24819692387</v>
       </c>
       <c r="D32" t="n">
-        <v>265.658346773547</v>
+        <v>265.6583467735454</v>
       </c>
       <c r="E32" t="n">
-        <v>292.9056752251258</v>
+        <v>292.9056752251242</v>
       </c>
       <c r="F32" t="n">
-        <v>317.8513508945755</v>
+        <v>317.8513508945738</v>
       </c>
       <c r="G32" t="n">
-        <v>321.8970308063175</v>
+        <v>321.8970308063159</v>
       </c>
       <c r="H32" t="n">
-        <v>205.5830695401845</v>
+        <v>205.5830695401829</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>20.16306694103989</v>
+        <v>20.16306694103824</v>
       </c>
       <c r="T32" t="n">
-        <v>114.8932752924842</v>
+        <v>114.8932752924826</v>
       </c>
       <c r="U32" t="n">
-        <v>161.970477111766</v>
+        <v>161.9704771117644</v>
       </c>
       <c r="V32" t="n">
-        <v>238.727563622999</v>
+        <v>238.7275636229973</v>
       </c>
       <c r="W32" t="n">
-        <v>260.2162738702771</v>
+        <v>260.2162738702754</v>
       </c>
       <c r="X32" t="n">
-        <v>280.7064058313331</v>
+        <v>280.7064058313314</v>
       </c>
       <c r="Y32" t="n">
-        <v>297.2132438089176</v>
+        <v>297.213243808916</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>90.80728533479969</v>
       </c>
       <c r="C34" t="n">
-        <v>78.22212625149187</v>
+        <v>78.22212625149022</v>
       </c>
       <c r="D34" t="n">
-        <v>59.59077817107639</v>
+        <v>59.59077817107475</v>
       </c>
       <c r="E34" t="n">
-        <v>57.40926779943321</v>
+        <v>57.40926779943156</v>
       </c>
       <c r="F34" t="n">
-        <v>56.39635317579528</v>
+        <v>56.39635317579364</v>
       </c>
       <c r="G34" t="n">
-        <v>77.00111341189226</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>55.73032006718482</v>
+        <v>55.73032006718317</v>
       </c>
       <c r="I34" t="n">
-        <v>7.327725562702149</v>
+        <v>7.3277255627005</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>100.7443304843059</v>
+        <v>100.7443304843043</v>
       </c>
       <c r="T34" t="n">
-        <v>130.5242544290332</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>197.1871433584769</v>
+        <v>197.1871433584753</v>
       </c>
       <c r="V34" t="n">
-        <v>163.1129484766921</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>197.4983034894534</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>136.6849605418996</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.8636122440963</v>
+        <v>166.8636122441144</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007076</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
-        <v>42.20693826439457</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775077</v>
+        <v>239.4866237999589</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482615</v>
+        <v>98.69583361727746</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419025</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007206</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279485</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538322</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092313</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>98.02980050866837</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>42.20693826439435</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007116</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>90.60953276887741</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>231.0452163728801</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1337.771389375804</v>
+        <v>1271.153615906229</v>
       </c>
       <c r="C11" t="n">
-        <v>1337.771389375804</v>
+        <v>1271.153615906229</v>
       </c>
       <c r="D11" t="n">
-        <v>1023.178585772378</v>
+        <v>956.5608123028042</v>
       </c>
       <c r="E11" t="n">
-        <v>681.0632281774585</v>
+        <v>614.4454547078853</v>
       </c>
       <c r="F11" t="n">
-        <v>313.7502183911758</v>
+        <v>614.4454547078853</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>320.422821820091</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3258.988048139592</v>
       </c>
       <c r="T11" t="n">
-        <v>3163.300968996718</v>
+        <v>3096.68319552714</v>
       </c>
       <c r="U11" t="n">
-        <v>2953.443387273879</v>
+        <v>2886.825613804301</v>
       </c>
       <c r="V11" t="n">
-        <v>2666.053394933633</v>
+        <v>2599.435621464056</v>
       </c>
       <c r="W11" t="n">
-        <v>2356.957634666843</v>
+        <v>2290.339861197267</v>
       </c>
       <c r="X11" t="n">
-        <v>2027.164771409088</v>
+        <v>1960.546997939512</v>
       </c>
       <c r="Y11" t="n">
-        <v>1680.698334436601</v>
+        <v>1614.080560967026</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5106,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.8629614253721</v>
+        <v>695.8629614253824</v>
       </c>
       <c r="C13" t="n">
-        <v>660.6401274939524</v>
+        <v>570.5996735008008</v>
       </c>
       <c r="D13" t="n">
-        <v>554.1963830849413</v>
+        <v>464.1559290917903</v>
       </c>
       <c r="E13" t="n">
-        <v>449.9561845058729</v>
+        <v>359.9157305127225</v>
       </c>
       <c r="F13" t="n">
-        <v>346.7391320112872</v>
+        <v>256.6986780181373</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7091903893308</v>
+        <v>132.6687363961818</v>
       </c>
       <c r="H13" t="n">
-        <v>120.1648986105134</v>
+        <v>120.1648986105128</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>154.4385532718775</v>
+        <v>154.4385532718781</v>
       </c>
       <c r="K13" t="n">
-        <v>401.2295406135123</v>
+        <v>401.2295406135136</v>
       </c>
       <c r="L13" t="n">
-        <v>760.593143454767</v>
+        <v>760.5931434547688</v>
       </c>
       <c r="M13" t="n">
-        <v>1147.553993447074</v>
+        <v>1147.553993447077</v>
       </c>
       <c r="N13" t="n">
-        <v>1531.766174545698</v>
+        <v>1531.766174545701</v>
       </c>
       <c r="O13" t="n">
-        <v>1873.899577858869</v>
+        <v>1873.899577858873</v>
       </c>
       <c r="P13" t="n">
-        <v>2149.310882685287</v>
+        <v>2149.310882685292</v>
       </c>
       <c r="Q13" t="n">
-        <v>2269.724983230561</v>
+        <v>2269.724983230566</v>
       </c>
       <c r="R13" t="n">
-        <v>2223.567420991413</v>
+        <v>2223.567420991418</v>
       </c>
       <c r="S13" t="n">
-        <v>2075.554431821564</v>
+        <v>2075.55443182157</v>
       </c>
       <c r="T13" t="n">
-        <v>1897.460711394415</v>
+        <v>1897.460711394422</v>
       </c>
       <c r="U13" t="n">
-        <v>1652.030739523383</v>
+        <v>1652.030739523391</v>
       </c>
       <c r="V13" t="n">
-        <v>1441.019146320821</v>
+        <v>1441.019146320829</v>
       </c>
       <c r="W13" t="n">
-        <v>1195.274871287185</v>
+        <v>1195.274871287194</v>
       </c>
       <c r="X13" t="n">
-        <v>1010.958215392492</v>
+        <v>1010.958215392502</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.8385312522871</v>
+        <v>833.8385312522969</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1699.017812298566</v>
+        <v>1401.250744352971</v>
       </c>
       <c r="C14" t="n">
-        <v>1373.728190361479</v>
+        <v>1401.250744352971</v>
       </c>
       <c r="D14" t="n">
-        <v>1059.135386758053</v>
+        <v>1401.250744352971</v>
       </c>
       <c r="E14" t="n">
-        <v>1059.135386758053</v>
+        <v>1059.135386758051</v>
       </c>
       <c r="F14" t="n">
-        <v>691.8223769717703</v>
+        <v>691.8223769717692</v>
       </c>
       <c r="G14" t="n">
-        <v>320.4228218200915</v>
+        <v>320.422821820091</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,10 +5276,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3258.98804813959</v>
+        <v>3258.988048139591</v>
       </c>
       <c r="T14" t="n">
-        <v>3096.683195527137</v>
+        <v>3096.683195527138</v>
       </c>
       <c r="U14" t="n">
-        <v>2886.825613804298</v>
+        <v>2886.8256138043</v>
       </c>
       <c r="V14" t="n">
-        <v>2599.435621464052</v>
+        <v>2599.435621464055</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.339861197263</v>
+        <v>2420.436989644008</v>
       </c>
       <c r="X14" t="n">
-        <v>2290.339861197263</v>
+        <v>2090.644126386253</v>
       </c>
       <c r="Y14" t="n">
-        <v>2041.944757359363</v>
+        <v>1744.177689413767</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.9034154185346</v>
+        <v>695.8629614253815</v>
       </c>
       <c r="C16" t="n">
-        <v>660.6401274939524</v>
+        <v>570.5996735007999</v>
       </c>
       <c r="D16" t="n">
-        <v>554.1963830849413</v>
+        <v>464.1559290917894</v>
       </c>
       <c r="E16" t="n">
-        <v>449.9561845058729</v>
+        <v>359.9157305127216</v>
       </c>
       <c r="F16" t="n">
-        <v>346.7391320112873</v>
+        <v>346.7391320112855</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7091903893309</v>
+        <v>222.7091903893297</v>
       </c>
       <c r="H16" t="n">
-        <v>120.1648986105134</v>
+        <v>120.1648986105128</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>154.4385532718775</v>
+        <v>154.4385532718781</v>
       </c>
       <c r="K16" t="n">
-        <v>401.2295406135124</v>
+        <v>401.2295406135136</v>
       </c>
       <c r="L16" t="n">
-        <v>760.593143454767</v>
+        <v>760.5931434547688</v>
       </c>
       <c r="M16" t="n">
-        <v>1147.553993447074</v>
+        <v>1147.553993447077</v>
       </c>
       <c r="N16" t="n">
-        <v>1531.766174545698</v>
+        <v>1531.766174545701</v>
       </c>
       <c r="O16" t="n">
-        <v>1873.899577858869</v>
+        <v>1873.899577858873</v>
       </c>
       <c r="P16" t="n">
-        <v>2149.310882685287</v>
+        <v>2149.310882685292</v>
       </c>
       <c r="Q16" t="n">
-        <v>2269.724983230561</v>
+        <v>2269.724983230566</v>
       </c>
       <c r="R16" t="n">
-        <v>2223.567420991413</v>
+        <v>2223.567420991419</v>
       </c>
       <c r="S16" t="n">
-        <v>2075.554431821564</v>
+        <v>2075.55443182157</v>
       </c>
       <c r="T16" t="n">
-        <v>1897.460711394415</v>
+        <v>1897.460711394422</v>
       </c>
       <c r="U16" t="n">
-        <v>1652.030739523382</v>
+        <v>1652.03073952339</v>
       </c>
       <c r="V16" t="n">
-        <v>1441.01914632082</v>
+        <v>1441.019146320829</v>
       </c>
       <c r="W16" t="n">
-        <v>1285.315325280347</v>
+        <v>1195.274871287193</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.998669385655</v>
+        <v>1010.958215392501</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.8789852454495</v>
+        <v>833.838531252296</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.75067949081</v>
+        <v>1650.750679490816</v>
       </c>
       <c r="C17" t="n">
-        <v>1372.910690501796</v>
+        <v>1372.910690501803</v>
       </c>
       <c r="D17" t="n">
-        <v>1105.767519846444</v>
+        <v>1105.767519846451</v>
       </c>
       <c r="E17" t="n">
-        <v>811.1017951995975</v>
+        <v>811.1017951996056</v>
       </c>
       <c r="F17" t="n">
-        <v>596.9231110756236</v>
+        <v>491.2384183613967</v>
       </c>
       <c r="G17" t="n">
-        <v>272.9731888720182</v>
+        <v>272.9731888720175</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3306.437681087663</v>
+        <v>3306.437681087665</v>
       </c>
       <c r="T17" t="n">
-        <v>3191.582461423283</v>
+        <v>3191.582461423286</v>
       </c>
       <c r="U17" t="n">
-        <v>3029.174512648518</v>
+        <v>3029.174512648521</v>
       </c>
       <c r="V17" t="n">
-        <v>2789.234153256345</v>
+        <v>2789.234153256349</v>
       </c>
       <c r="W17" t="n">
-        <v>2527.588025937629</v>
+        <v>2527.588025937633</v>
       </c>
       <c r="X17" t="n">
-        <v>2245.244795627947</v>
+        <v>2245.244795627952</v>
       </c>
       <c r="Y17" t="n">
-        <v>1946.227991603534</v>
+        <v>1946.227991603539</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,13 +5607,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.8785127334193</v>
+        <v>453.7559847820167</v>
       </c>
       <c r="C19" t="n">
-        <v>467.0648577569104</v>
+        <v>375.9423298055085</v>
       </c>
       <c r="D19" t="n">
-        <v>408.0707462959727</v>
+        <v>316.9482183445714</v>
       </c>
       <c r="E19" t="n">
-        <v>351.2801806649776</v>
+        <v>260.157652713577</v>
       </c>
       <c r="F19" t="n">
-        <v>295.5127611184653</v>
+        <v>204.3902331670653</v>
       </c>
       <c r="G19" t="n">
-        <v>127.8099244931842</v>
+        <v>127.8099244931829</v>
       </c>
       <c r="H19" t="n">
-        <v>72.71526566244003</v>
+        <v>72.71526566243939</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1736.900734624244</v>
+        <v>1736.900734624246</v>
       </c>
       <c r="T19" t="n">
-        <v>1606.256647145168</v>
+        <v>1606.256647145171</v>
       </c>
       <c r="U19" t="n">
-        <v>1317.153780270812</v>
+        <v>1317.153780270814</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.236165836575</v>
+        <v>1062.469292064927</v>
       </c>
       <c r="W19" t="n">
-        <v>901.9415237510123</v>
+        <v>864.1746499793651</v>
       </c>
       <c r="X19" t="n">
-        <v>765.074500804393</v>
+        <v>673.9519728529892</v>
       </c>
       <c r="Y19" t="n">
-        <v>635.4044496122609</v>
+        <v>544.2819216608577</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1756.435372205046</v>
+        <v>1650.750679490815</v>
       </c>
       <c r="C20" t="n">
-        <v>1478.595383216032</v>
+        <v>1372.910690501802</v>
       </c>
       <c r="D20" t="n">
-        <v>1211.45221256068</v>
+        <v>1105.767519846451</v>
       </c>
       <c r="E20" t="n">
-        <v>916.7864879138332</v>
+        <v>811.101795199605</v>
       </c>
       <c r="F20" t="n">
-        <v>596.9231110756236</v>
+        <v>491.2384183613963</v>
       </c>
       <c r="G20" t="n">
-        <v>272.9731888720182</v>
+        <v>272.9731888720175</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3306.437681087663</v>
+        <v>3306.437681087665</v>
       </c>
       <c r="T20" t="n">
-        <v>3191.582461423282</v>
+        <v>3191.582461423286</v>
       </c>
       <c r="U20" t="n">
-        <v>3029.174512648517</v>
+        <v>3029.174512648521</v>
       </c>
       <c r="V20" t="n">
-        <v>2789.234153256345</v>
+        <v>2789.234153256348</v>
       </c>
       <c r="W20" t="n">
-        <v>2527.588025937629</v>
+        <v>2527.588025937633</v>
       </c>
       <c r="X20" t="n">
-        <v>2245.244795627947</v>
+        <v>2245.244795627952</v>
       </c>
       <c r="Y20" t="n">
-        <v>1946.227991603533</v>
+        <v>1946.227991603539</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>688.0646241556396</v>
+        <v>505.8195682528474</v>
       </c>
       <c r="C22" t="n">
-        <v>610.2509691791307</v>
+        <v>428.0059132763392</v>
       </c>
       <c r="D22" t="n">
-        <v>499.1932742473707</v>
+        <v>369.0118018154021</v>
       </c>
       <c r="E22" t="n">
-        <v>351.2801806649776</v>
+        <v>312.2212361844077</v>
       </c>
       <c r="F22" t="n">
-        <v>204.3902331670672</v>
+        <v>204.3902331670653</v>
       </c>
       <c r="G22" t="n">
-        <v>127.8099244931842</v>
+        <v>127.8099244931829</v>
       </c>
       <c r="H22" t="n">
-        <v>72.71526566244003</v>
+        <v>72.71526566243939</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1826.731191866717</v>
+        <v>1826.731191866718</v>
       </c>
       <c r="T22" t="n">
-        <v>1696.087104387641</v>
+        <v>1604.964576436244</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.106765464682</v>
+        <v>1315.861709561887</v>
       </c>
       <c r="V22" t="n">
-        <v>1334.544805210193</v>
+        <v>1152.299749307399</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.250163124631</v>
+        <v>862.8825792704386</v>
       </c>
       <c r="X22" t="n">
-        <v>908.2606122266134</v>
+        <v>726.0155563238199</v>
       </c>
       <c r="Y22" t="n">
-        <v>778.5905610344813</v>
+        <v>596.3455051316885</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1758.592202668602</v>
+        <v>1758.592202668597</v>
       </c>
       <c r="C23" t="n">
-        <v>1480.752213679588</v>
+        <v>1480.752213679584</v>
       </c>
       <c r="D23" t="n">
-        <v>1213.609043024235</v>
+        <v>1213.609043024233</v>
       </c>
       <c r="E23" t="n">
-        <v>918.943318377389</v>
+        <v>918.9433183773868</v>
       </c>
       <c r="F23" t="n">
-        <v>599.0799415391795</v>
+        <v>599.079941539178</v>
       </c>
       <c r="G23" t="n">
-        <v>275.130019335574</v>
+        <v>275.1300193355732</v>
       </c>
       <c r="H23" t="n">
-        <v>68.66894689573925</v>
+        <v>68.66894689573905</v>
       </c>
       <c r="I23" t="n">
-        <v>68.66894689573925</v>
+        <v>68.66894689573905</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5480778547646</v>
+        <v>257.5480778547645</v>
       </c>
       <c r="K23" t="n">
         <v>591.367451544611</v>
@@ -5996,43 +5996,43 @@
         <v>1042.40166479302</v>
       </c>
       <c r="M23" t="n">
-        <v>1681.618262179181</v>
+        <v>1575.933569464944</v>
       </c>
       <c r="N23" t="n">
-        <v>2228.397079237963</v>
+        <v>2122.712386523727</v>
       </c>
       <c r="O23" t="n">
-        <v>2731.3695501173</v>
+        <v>2625.684857403064</v>
       </c>
       <c r="P23" t="n">
-        <v>3126.143916474477</v>
+        <v>3126.143916474468</v>
       </c>
       <c r="Q23" t="n">
-        <v>3374.43027823016</v>
+        <v>3374.43027823015</v>
       </c>
       <c r="R23" t="n">
-        <v>3433.447344786962</v>
+        <v>3433.447344786953</v>
       </c>
       <c r="S23" t="n">
-        <v>3414.279204265456</v>
+        <v>3414.279204265446</v>
       </c>
       <c r="T23" t="n">
-        <v>3299.423984601076</v>
+        <v>3299.423984601067</v>
       </c>
       <c r="U23" t="n">
-        <v>3137.01603582631</v>
+        <v>3137.016035826302</v>
       </c>
       <c r="V23" t="n">
-        <v>2897.075676434137</v>
+        <v>2897.07567643413</v>
       </c>
       <c r="W23" t="n">
-        <v>2635.429549115421</v>
+        <v>2635.429549115414</v>
       </c>
       <c r="X23" t="n">
-        <v>2353.086318805739</v>
+        <v>2353.086318805733</v>
       </c>
       <c r="Y23" t="n">
-        <v>2054.069514781325</v>
+        <v>2054.06951478132</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.7006849446644</v>
+        <v>943.7006849446634</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2476556635374</v>
+        <v>769.2476556635364</v>
       </c>
       <c r="D24" t="n">
-        <v>620.3132460022862</v>
+        <v>620.3132460022853</v>
       </c>
       <c r="E24" t="n">
-        <v>461.0757909968307</v>
+        <v>461.0757909968297</v>
       </c>
       <c r="F24" t="n">
-        <v>314.5412330237157</v>
+        <v>314.5412330237148</v>
       </c>
       <c r="G24" t="n">
-        <v>178.1781328563338</v>
+        <v>178.1781328563334</v>
       </c>
       <c r="H24" t="n">
-        <v>87.67623849420133</v>
+        <v>87.67623849420102</v>
       </c>
       <c r="I24" t="n">
-        <v>68.66894689573925</v>
+        <v>68.66894689573905</v>
       </c>
       <c r="J24" t="n">
-        <v>162.3462163863565</v>
+        <v>162.3462163863562</v>
       </c>
       <c r="K24" t="n">
-        <v>400.6104153667036</v>
+        <v>400.6104153667031</v>
       </c>
       <c r="L24" t="n">
-        <v>767.3085756793689</v>
+        <v>767.3085756793687</v>
       </c>
       <c r="M24" t="n">
-        <v>1214.584900901685</v>
+        <v>1214.584900901684</v>
       </c>
       <c r="N24" t="n">
         <v>1688.107944456139</v>
@@ -6087,7 +6087,7 @@
         <v>2409.568815350297</v>
       </c>
       <c r="Q24" t="n">
-        <v>2567.210372996897</v>
+        <v>2567.210372996896</v>
       </c>
       <c r="R24" t="n">
         <v>2567.066019589412</v>
@@ -6096,22 +6096,22 @@
         <v>2437.628133082892</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.985132760748</v>
+        <v>2244.985132760747</v>
       </c>
       <c r="U24" t="n">
         <v>2016.917285895163</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.765177663421</v>
+        <v>1781.76517766342</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.527820935219</v>
+        <v>1527.527820935218</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.676320729686</v>
+        <v>1319.676320729685</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.916021964732</v>
+        <v>1111.916021964731</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3439825705934</v>
+        <v>455.9128152455723</v>
       </c>
       <c r="C25" t="n">
-        <v>703.5303275940845</v>
+        <v>378.0991602690641</v>
       </c>
       <c r="D25" t="n">
-        <v>644.5362161331468</v>
+        <v>319.105048808127</v>
       </c>
       <c r="E25" t="n">
-        <v>587.7456505021518</v>
+        <v>262.3144831771326</v>
       </c>
       <c r="F25" t="n">
-        <v>479.9146474848172</v>
+        <v>206.5470636306209</v>
       </c>
       <c r="G25" t="n">
-        <v>312.2118108595362</v>
+        <v>129.9667549567386</v>
       </c>
       <c r="H25" t="n">
-        <v>165.9946240773939</v>
+        <v>74.87209612599503</v>
       </c>
       <c r="I25" t="n">
-        <v>68.66894689573925</v>
+        <v>68.66894689573905</v>
       </c>
       <c r="J25" t="n">
-        <v>113.7915793426748</v>
+        <v>113.7915793426746</v>
       </c>
       <c r="K25" t="n">
-        <v>317.7787622915511</v>
+        <v>317.778762291551</v>
       </c>
       <c r="L25" t="n">
-        <v>634.3385607400472</v>
+        <v>634.3385607400471</v>
       </c>
       <c r="M25" t="n">
         <v>978.4956063395962</v>
@@ -6163,7 +6163,7 @@
         <v>1619.233581965874</v>
       </c>
       <c r="P25" t="n">
-        <v>1851.841082399533</v>
+        <v>1851.841082399534</v>
       </c>
       <c r="Q25" t="n">
         <v>1929.451378552048</v>
@@ -6172,25 +6172,25 @@
         <v>1929.451378552048</v>
       </c>
       <c r="S25" t="n">
-        <v>1828.888022330272</v>
+        <v>1737.765494378875</v>
       </c>
       <c r="T25" t="n">
-        <v>1698.243934851196</v>
+        <v>1515.998878948401</v>
       </c>
       <c r="U25" t="n">
-        <v>1500.263595928238</v>
+        <v>1265.954956554612</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.701635673749</v>
+        <v>1102.392996300124</v>
       </c>
       <c r="W25" t="n">
-        <v>1138.406993588186</v>
+        <v>904.0983542145623</v>
       </c>
       <c r="X25" t="n">
-        <v>1001.539970641567</v>
+        <v>767.2313312679436</v>
       </c>
       <c r="Y25" t="n">
-        <v>871.8699194494351</v>
+        <v>546.4387521244134</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1657.435756207693</v>
+        <v>1426.331810675864</v>
       </c>
       <c r="C26" t="n">
-        <v>1335.922872215355</v>
+        <v>1104.818926683526</v>
       </c>
       <c r="D26" t="n">
-        <v>1025.106806556677</v>
+        <v>1021.020261191281</v>
       </c>
       <c r="E26" t="n">
-        <v>686.7681869065066</v>
+        <v>682.6816415411101</v>
       </c>
       <c r="F26" t="n">
-        <v>686.7681869065066</v>
+        <v>319.145369699576</v>
       </c>
       <c r="G26" t="n">
-        <v>319.1453696995764</v>
+        <v>319.145369699576</v>
       </c>
       <c r="H26" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="I26" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J26" t="n">
-        <v>257.8905332154423</v>
+        <v>315.2962829286088</v>
       </c>
       <c r="K26" t="n">
-        <v>591.7099069052887</v>
+        <v>649.1156566184552</v>
       </c>
       <c r="L26" t="n">
-        <v>1042.744120153697</v>
+        <v>1100.149869866864</v>
       </c>
       <c r="M26" t="n">
-        <v>1698.741030213064</v>
+        <v>1633.681774538788</v>
       </c>
       <c r="N26" t="n">
-        <v>2245.519847271846</v>
+        <v>2180.46059159757</v>
       </c>
       <c r="O26" t="n">
-        <v>2748.492318151183</v>
+        <v>2683.433062476907</v>
       </c>
       <c r="P26" t="n">
-        <v>3143.26668450836</v>
+        <v>3078.207428834085</v>
       </c>
       <c r="Q26" t="n">
-        <v>3391.553046264043</v>
+        <v>3326.493790589767</v>
       </c>
       <c r="R26" t="n">
-        <v>3450.570112820845</v>
+        <v>3450.570112820822</v>
       </c>
       <c r="S26" t="n">
-        <v>3387.729077296013</v>
+        <v>3387.729077295991</v>
       </c>
       <c r="T26" t="n">
-        <v>3387.729077296013</v>
+        <v>3229.200962628286</v>
       </c>
       <c r="U26" t="n">
-        <v>3254.224064382024</v>
+        <v>3023.120118850196</v>
       </c>
       <c r="V26" t="n">
-        <v>2970.610809986527</v>
+        <v>2739.506864454699</v>
       </c>
       <c r="W26" t="n">
-        <v>2665.291787664486</v>
+        <v>2434.187842132658</v>
       </c>
       <c r="X26" t="n">
-        <v>2339.27566235148</v>
+        <v>2108.171716819651</v>
       </c>
       <c r="Y26" t="n">
-        <v>1996.585963323741</v>
+        <v>1765.482017791913</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.043140305342</v>
+        <v>944.0431403053406</v>
       </c>
       <c r="C27" t="n">
-        <v>769.590111024215</v>
+        <v>769.5901110242136</v>
       </c>
       <c r="D27" t="n">
-        <v>620.6557013629638</v>
+        <v>620.6557013629623</v>
       </c>
       <c r="E27" t="n">
-        <v>461.4182463575083</v>
+        <v>461.4182463575068</v>
       </c>
       <c r="F27" t="n">
-        <v>314.8836883843933</v>
+        <v>314.8836883843918</v>
       </c>
       <c r="G27" t="n">
-        <v>178.5205882170114</v>
+        <v>178.5205882170099</v>
       </c>
       <c r="H27" t="n">
-        <v>88.01869385487896</v>
+        <v>88.01869385487741</v>
       </c>
       <c r="I27" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J27" t="n">
-        <v>162.6886717470342</v>
+        <v>162.6886717470337</v>
       </c>
       <c r="K27" t="n">
-        <v>400.9528707273813</v>
+        <v>400.9528707273808</v>
       </c>
       <c r="L27" t="n">
-        <v>767.6510310400465</v>
+        <v>767.6510310400461</v>
       </c>
       <c r="M27" t="n">
         <v>1214.927356262362</v>
       </c>
       <c r="N27" t="n">
-        <v>1688.450399816817</v>
+        <v>1688.450399816816</v>
       </c>
       <c r="O27" t="n">
         <v>2099.411679234871</v>
       </c>
       <c r="P27" t="n">
-        <v>2409.911270710974</v>
+        <v>2409.911270710973</v>
       </c>
       <c r="Q27" t="n">
-        <v>2567.552828357574</v>
+        <v>2567.552828357573</v>
       </c>
       <c r="R27" t="n">
-        <v>2567.40847495009</v>
+        <v>2567.408474950088</v>
       </c>
       <c r="S27" t="n">
-        <v>2437.97058844357</v>
+        <v>2437.970588443568</v>
       </c>
       <c r="T27" t="n">
-        <v>2245.327588121425</v>
+        <v>2245.327588121424</v>
       </c>
       <c r="U27" t="n">
-        <v>2017.259741255841</v>
+        <v>2017.25974125584</v>
       </c>
       <c r="V27" t="n">
-        <v>1782.107633024098</v>
+        <v>1782.107633024097</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.870276295897</v>
+        <v>1527.870276295895</v>
       </c>
       <c r="X27" t="n">
-        <v>1320.018776090364</v>
+        <v>1320.018776090363</v>
       </c>
       <c r="Y27" t="n">
-        <v>1112.25847732541</v>
+        <v>1112.258477325409</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>761.9655356295277</v>
+        <v>761.9655356295268</v>
       </c>
       <c r="C28" t="n">
-        <v>640.4789856496941</v>
+        <v>640.4789856496932</v>
       </c>
       <c r="D28" t="n">
-        <v>537.8119791854317</v>
+        <v>537.8119791854308</v>
       </c>
       <c r="E28" t="n">
-        <v>437.3485185511119</v>
+        <v>437.3485185511111</v>
       </c>
       <c r="F28" t="n">
-        <v>337.9082040012748</v>
+        <v>337.908204001274</v>
       </c>
       <c r="G28" t="n">
-        <v>217.6550003240671</v>
+        <v>217.6550003240664</v>
       </c>
       <c r="H28" t="n">
-        <v>118.8874464899982</v>
+        <v>118.8874464899978</v>
       </c>
       <c r="I28" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J28" t="n">
-        <v>160.6394199557593</v>
+        <v>160.6394199557587</v>
       </c>
       <c r="K28" t="n">
-        <v>411.1319881570423</v>
+        <v>411.1319881570416</v>
       </c>
       <c r="L28" t="n">
-        <v>774.197171857945</v>
+        <v>774.1971718579443</v>
       </c>
       <c r="M28" t="n">
-        <v>1164.859602709901</v>
+        <v>1164.8596027099</v>
       </c>
       <c r="N28" t="n">
         <v>1552.773364668172</v>
@@ -6400,7 +6400,7 @@
         <v>1898.608348840992</v>
       </c>
       <c r="P28" t="n">
-        <v>2177.721234527058</v>
+        <v>2177.721234527057</v>
       </c>
       <c r="Q28" t="n">
         <v>2301.836915931979</v>
@@ -6409,25 +6409,25 @@
         <v>2259.45609163758</v>
       </c>
       <c r="S28" t="n">
-        <v>2115.21984041248</v>
+        <v>2115.219840412479</v>
       </c>
       <c r="T28" t="n">
-        <v>1940.902857930079</v>
+        <v>1940.902857930078</v>
       </c>
       <c r="U28" t="n">
-        <v>1699.249624003796</v>
+        <v>1699.249624003795</v>
       </c>
       <c r="V28" t="n">
         <v>1492.014768745982</v>
       </c>
       <c r="W28" t="n">
-        <v>1250.047231657095</v>
+        <v>1250.047231657094</v>
       </c>
       <c r="X28" t="n">
-        <v>1069.507313707151</v>
+        <v>1069.50731370715</v>
       </c>
       <c r="Y28" t="n">
-        <v>896.1643675116941</v>
+        <v>896.1643675116932</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1426.331810675887</v>
+        <v>1752.347935988871</v>
       </c>
       <c r="C29" t="n">
-        <v>1104.818926683548</v>
+        <v>1430.835051996533</v>
       </c>
       <c r="D29" t="n">
-        <v>794.0028610248714</v>
+        <v>1138.509110955052</v>
       </c>
       <c r="E29" t="n">
-        <v>455.6642413747002</v>
+        <v>800.1704913048809</v>
       </c>
       <c r="F29" t="n">
-        <v>455.6642413747002</v>
+        <v>436.6342194633466</v>
       </c>
       <c r="G29" t="n">
-        <v>319.1453696995764</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="H29" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="I29" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J29" t="n">
-        <v>257.8905332154423</v>
+        <v>380.3555386028615</v>
       </c>
       <c r="K29" t="n">
-        <v>591.7099069052887</v>
+        <v>714.1749122927079</v>
       </c>
       <c r="L29" t="n">
-        <v>1165.209125541139</v>
+        <v>1165.209125541116</v>
       </c>
       <c r="M29" t="n">
-        <v>1698.741030213064</v>
+        <v>1698.741030213041</v>
       </c>
       <c r="N29" t="n">
-        <v>2245.519847271846</v>
+        <v>2245.519847271823</v>
       </c>
       <c r="O29" t="n">
-        <v>2748.492318151183</v>
+        <v>2748.49231815116</v>
       </c>
       <c r="P29" t="n">
-        <v>3143.26668450836</v>
+        <v>3143.266684508338</v>
       </c>
       <c r="Q29" t="n">
-        <v>3391.553046264043</v>
+        <v>3391.55304626402</v>
       </c>
       <c r="R29" t="n">
-        <v>3450.570112820845</v>
+        <v>3450.570112820822</v>
       </c>
       <c r="S29" t="n">
-        <v>3387.729077296014</v>
+        <v>3387.729077295991</v>
       </c>
       <c r="T29" t="n">
-        <v>3229.200962628309</v>
+        <v>3229.200962628286</v>
       </c>
       <c r="U29" t="n">
-        <v>3023.120118850219</v>
+        <v>3023.120118850196</v>
       </c>
       <c r="V29" t="n">
-        <v>2739.506864454721</v>
+        <v>2739.506864454699</v>
       </c>
       <c r="W29" t="n">
-        <v>2434.187842132681</v>
+        <v>2434.187842132658</v>
       </c>
       <c r="X29" t="n">
-        <v>2108.171716819674</v>
+        <v>2434.187842132658</v>
       </c>
       <c r="Y29" t="n">
-        <v>1765.482017791935</v>
+        <v>2091.49814310492</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>944.043140305342</v>
+        <v>944.0431403053406</v>
       </c>
       <c r="C30" t="n">
-        <v>769.590111024215</v>
+        <v>769.5901110242136</v>
       </c>
       <c r="D30" t="n">
-        <v>620.6557013629638</v>
+        <v>620.6557013629623</v>
       </c>
       <c r="E30" t="n">
-        <v>461.4182463575083</v>
+        <v>461.4182463575068</v>
       </c>
       <c r="F30" t="n">
-        <v>314.8836883843933</v>
+        <v>314.8836883843918</v>
       </c>
       <c r="G30" t="n">
-        <v>178.5205882170114</v>
+        <v>178.5205882170099</v>
       </c>
       <c r="H30" t="n">
-        <v>88.01869385487896</v>
+        <v>88.01869385487741</v>
       </c>
       <c r="I30" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J30" t="n">
-        <v>162.6886717470342</v>
+        <v>162.6886717470337</v>
       </c>
       <c r="K30" t="n">
-        <v>400.9528707273813</v>
+        <v>400.9528707273808</v>
       </c>
       <c r="L30" t="n">
-        <v>767.6510310400465</v>
+        <v>767.6510310400461</v>
       </c>
       <c r="M30" t="n">
         <v>1214.927356262362</v>
       </c>
       <c r="N30" t="n">
-        <v>1688.450399816817</v>
+        <v>1688.450399816816</v>
       </c>
       <c r="O30" t="n">
         <v>2099.411679234871</v>
       </c>
       <c r="P30" t="n">
-        <v>2409.911270710974</v>
+        <v>2409.911270710973</v>
       </c>
       <c r="Q30" t="n">
-        <v>2567.552828357574</v>
+        <v>2567.552828357573</v>
       </c>
       <c r="R30" t="n">
-        <v>2567.40847495009</v>
+        <v>2567.408474950088</v>
       </c>
       <c r="S30" t="n">
-        <v>2437.97058844357</v>
+        <v>2437.970588443568</v>
       </c>
       <c r="T30" t="n">
-        <v>2245.327588121425</v>
+        <v>2245.327588121424</v>
       </c>
       <c r="U30" t="n">
-        <v>2017.259741255841</v>
+        <v>2017.25974125584</v>
       </c>
       <c r="V30" t="n">
-        <v>1782.107633024098</v>
+        <v>1782.107633024097</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.870276295897</v>
+        <v>1527.870276295895</v>
       </c>
       <c r="X30" t="n">
-        <v>1320.018776090364</v>
+        <v>1320.018776090363</v>
       </c>
       <c r="Y30" t="n">
-        <v>1112.25847732541</v>
+        <v>1112.258477325409</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>761.9655356295278</v>
+        <v>761.9655356295273</v>
       </c>
       <c r="C31" t="n">
-        <v>640.4789856496942</v>
+        <v>640.4789856496936</v>
       </c>
       <c r="D31" t="n">
-        <v>537.8119791854318</v>
+        <v>537.8119791854313</v>
       </c>
       <c r="E31" t="n">
-        <v>437.348518551112</v>
+        <v>437.3485185511115</v>
       </c>
       <c r="F31" t="n">
-        <v>337.908204001275</v>
+        <v>337.9082040012745</v>
       </c>
       <c r="G31" t="n">
-        <v>217.6550003240672</v>
+        <v>217.6550003240666</v>
       </c>
       <c r="H31" t="n">
-        <v>118.8874464899983</v>
+        <v>118.8874464899978</v>
       </c>
       <c r="I31" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J31" t="n">
-        <v>160.639419955759</v>
+        <v>160.6394199557586</v>
       </c>
       <c r="K31" t="n">
-        <v>411.131988157042</v>
+        <v>411.1319881570416</v>
       </c>
       <c r="L31" t="n">
-        <v>774.1971718579446</v>
+        <v>774.1971718579443</v>
       </c>
       <c r="M31" t="n">
         <v>1164.8596027099</v>
@@ -6640,13 +6640,13 @@
         <v>2177.721234527057</v>
       </c>
       <c r="Q31" t="n">
-        <v>2301.836915931979</v>
+        <v>2301.836915931978</v>
       </c>
       <c r="R31" t="n">
-        <v>2259.45609163758</v>
+        <v>2259.456091637579</v>
       </c>
       <c r="S31" t="n">
-        <v>2115.21984041248</v>
+        <v>2115.219840412479</v>
       </c>
       <c r="T31" t="n">
         <v>1940.902857930079</v>
@@ -6661,10 +6661,10 @@
         <v>1250.047231657095</v>
       </c>
       <c r="X31" t="n">
-        <v>1069.507313707151</v>
+        <v>1069.50731370715</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.1643675116943</v>
+        <v>896.1643675116936</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1766.126220603511</v>
+        <v>1766.126220603501</v>
       </c>
       <c r="C32" t="n">
-        <v>1487.087637852125</v>
+        <v>1487.087637852117</v>
       </c>
       <c r="D32" t="n">
-        <v>1218.745873434401</v>
+        <v>1218.745873434395</v>
       </c>
       <c r="E32" t="n">
-        <v>922.8815550251829</v>
+        <v>922.8815550251782</v>
       </c>
       <c r="F32" t="n">
-        <v>601.8195844246015</v>
+        <v>601.8195844245985</v>
       </c>
       <c r="G32" t="n">
-        <v>276.6710684586235</v>
+        <v>276.6710684586214</v>
       </c>
       <c r="H32" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="I32" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J32" t="n">
-        <v>257.8905332154423</v>
+        <v>257.8905332154418</v>
       </c>
       <c r="K32" t="n">
-        <v>591.7099069052887</v>
+        <v>591.7099069052882</v>
       </c>
       <c r="L32" t="n">
         <v>1042.744120153697</v>
       </c>
       <c r="M32" t="n">
-        <v>1698.741030213064</v>
+        <v>1576.276024825621</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.519847271846</v>
+        <v>2123.054841884403</v>
       </c>
       <c r="O32" t="n">
-        <v>2748.492318151183</v>
+        <v>2748.49231815116</v>
       </c>
       <c r="P32" t="n">
-        <v>3143.26668450836</v>
+        <v>3143.266684508338</v>
       </c>
       <c r="Q32" t="n">
-        <v>3391.553046264043</v>
+        <v>3391.55304626402</v>
       </c>
       <c r="R32" t="n">
-        <v>3450.570112820845</v>
+        <v>3450.570112820822</v>
       </c>
       <c r="S32" t="n">
-        <v>3430.203378536967</v>
+        <v>3430.203378536945</v>
       </c>
       <c r="T32" t="n">
-        <v>3314.149565110214</v>
+        <v>3314.149565110195</v>
       </c>
       <c r="U32" t="n">
-        <v>3150.543022573077</v>
+        <v>3150.54302257306</v>
       </c>
       <c r="V32" t="n">
-        <v>2909.404069418533</v>
+        <v>2909.404069418517</v>
       </c>
       <c r="W32" t="n">
-        <v>2646.559348337445</v>
+        <v>2646.55934833743</v>
       </c>
       <c r="X32" t="n">
-        <v>2363.017524265392</v>
+        <v>2363.017524265379</v>
       </c>
       <c r="Y32" t="n">
-        <v>2062.802126478606</v>
+        <v>2062.802126478595</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>944.043140305342</v>
+        <v>944.0431403053406</v>
       </c>
       <c r="C33" t="n">
-        <v>769.590111024215</v>
+        <v>769.5901110242136</v>
       </c>
       <c r="D33" t="n">
-        <v>620.6557013629638</v>
+        <v>620.6557013629623</v>
       </c>
       <c r="E33" t="n">
-        <v>461.4182463575083</v>
+        <v>461.4182463575068</v>
       </c>
       <c r="F33" t="n">
-        <v>314.8836883843933</v>
+        <v>314.8836883843918</v>
       </c>
       <c r="G33" t="n">
-        <v>178.5205882170114</v>
+        <v>178.5205882170099</v>
       </c>
       <c r="H33" t="n">
-        <v>88.01869385487896</v>
+        <v>88.01869385487741</v>
       </c>
       <c r="I33" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J33" t="n">
-        <v>162.6886717470342</v>
+        <v>162.6886717470337</v>
       </c>
       <c r="K33" t="n">
-        <v>400.9528707273813</v>
+        <v>400.9528707273808</v>
       </c>
       <c r="L33" t="n">
-        <v>767.6510310400465</v>
+        <v>767.6510310400461</v>
       </c>
       <c r="M33" t="n">
         <v>1214.927356262362</v>
       </c>
       <c r="N33" t="n">
-        <v>1688.450399816817</v>
+        <v>1688.450399816816</v>
       </c>
       <c r="O33" t="n">
         <v>2099.411679234871</v>
       </c>
       <c r="P33" t="n">
-        <v>2409.911270710974</v>
+        <v>2409.911270710973</v>
       </c>
       <c r="Q33" t="n">
-        <v>2567.552828357574</v>
+        <v>2567.552828357573</v>
       </c>
       <c r="R33" t="n">
-        <v>2567.40847495009</v>
+        <v>2567.408474950088</v>
       </c>
       <c r="S33" t="n">
-        <v>2437.97058844357</v>
+        <v>2437.970588443568</v>
       </c>
       <c r="T33" t="n">
-        <v>2245.327588121425</v>
+        <v>2245.327588121424</v>
       </c>
       <c r="U33" t="n">
-        <v>2017.259741255841</v>
+        <v>2017.25974125584</v>
       </c>
       <c r="V33" t="n">
-        <v>1782.107633024098</v>
+        <v>1782.107633024097</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.870276295897</v>
+        <v>1527.870276295895</v>
       </c>
       <c r="X33" t="n">
-        <v>1320.018776090364</v>
+        <v>1320.018776090363</v>
       </c>
       <c r="Y33" t="n">
-        <v>1112.25847732541</v>
+        <v>1112.258477325409</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>464.6454269428573</v>
+        <v>554.5693611318731</v>
       </c>
       <c r="C34" t="n">
-        <v>385.6331782039766</v>
+        <v>475.557112392994</v>
       </c>
       <c r="D34" t="n">
-        <v>325.4404729806672</v>
+        <v>415.3644071696862</v>
       </c>
       <c r="E34" t="n">
-        <v>267.4513135873003</v>
+        <v>357.375247776321</v>
       </c>
       <c r="F34" t="n">
-        <v>210.4853002784161</v>
+        <v>300.4092344674385</v>
       </c>
       <c r="G34" t="n">
-        <v>132.7063978421613</v>
+        <v>132.7063978421575</v>
       </c>
       <c r="H34" t="n">
-        <v>76.41314524904533</v>
+        <v>76.41314524904321</v>
       </c>
       <c r="I34" t="n">
-        <v>69.0114022564169</v>
+        <v>69.01140225641645</v>
       </c>
       <c r="J34" t="n">
-        <v>114.1340347033524</v>
+        <v>114.134034703352</v>
       </c>
       <c r="K34" t="n">
-        <v>318.1212176522288</v>
+        <v>318.1212176522283</v>
       </c>
       <c r="L34" t="n">
-        <v>634.6810161007249</v>
+        <v>634.6810161007245</v>
       </c>
       <c r="M34" t="n">
-        <v>978.8380617002739</v>
+        <v>978.8380617002734</v>
       </c>
       <c r="N34" t="n">
-        <v>1320.246438406139</v>
+        <v>1320.246438406138</v>
       </c>
       <c r="O34" t="n">
         <v>1619.576037326552</v>
@@ -6877,31 +6877,31 @@
         <v>1852.183537760211</v>
       </c>
       <c r="Q34" t="n">
-        <v>1929.793833912726</v>
+        <v>1929.793833912725</v>
       </c>
       <c r="R34" t="n">
-        <v>1929.793833912726</v>
+        <v>1929.793833912725</v>
       </c>
       <c r="S34" t="n">
-        <v>1828.031883928579</v>
+        <v>1828.03188392858</v>
       </c>
       <c r="T34" t="n">
-        <v>1696.189202687131</v>
+        <v>1606.265268498106</v>
       </c>
       <c r="U34" t="n">
-        <v>1497.010270001801</v>
+        <v>1407.086335812777</v>
       </c>
       <c r="V34" t="n">
-        <v>1332.24971598494</v>
+        <v>1152.40184760689</v>
       </c>
       <c r="W34" t="n">
-        <v>1042.832545947979</v>
+        <v>952.9086117589575</v>
       </c>
       <c r="X34" t="n">
-        <v>814.8429950499619</v>
+        <v>814.8429950499681</v>
       </c>
       <c r="Y34" t="n">
-        <v>646.293891773097</v>
+        <v>646.2938917730849</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464978</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218339</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218339</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127581</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586947</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1970173202026</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E37" t="n">
-        <v>569.955358311653</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>423.0654108137426</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>255.3625741884615</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>109.1453874063193</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218339</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691543</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464963</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810541</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668172</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515852</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746125</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049854</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362618</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170916</v>
+        <v>453.7336441225985</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630282</v>
+        <v>383.468895768535</v>
       </c>
       <c r="D40" t="n">
-        <v>280.549442624536</v>
+        <v>332.0236909300427</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159864</v>
+        <v>282.7820319214931</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357883</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151996</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150352</v>
+        <v>985.4928044205424</v>
       </c>
       <c r="X40" t="n">
-        <v>706.0290052170178</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.9078606473313</v>
+        <v>635.3821089528383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046496</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830732</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668172</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515852</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746125</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049854</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362618</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7500,40 +7500,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.4050786964428</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>482.1403303423795</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>430.6951255038873</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>381.4534664953377</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>234.5635189974273</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5321169459898</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1791.646827515026</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1233.58015894186</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.567105309816</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>886.8213698466992</v>
+        <v>835.3471215411921</v>
       </c>
       <c r="X43" t="n">
-        <v>757.5032535225255</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y43" t="n">
-        <v>635.382108952839</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,34 +7661,34 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7719,16 +7719,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158134</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127583</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>670.6422221586949</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463592</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>372.6124891639661</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3939762398992</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>255.3625741884617</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>946.005145338841</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691545</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>106.7522148628655</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>106.7522148628547</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>57.98560577087579</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>123.7020256438809</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>123.7020256438582</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>123.7020256438807</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>123.7020256438809</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>123.7020256438589</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.22840840623738e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.21022140383137</v>
+        <v>15.21022140383138</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>322.0367257177161</v>
+        <v>322.0367257177155</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>363.6398796884195</v>
       </c>
       <c r="G11" t="n">
-        <v>122.9198386607599</v>
+        <v>76.60315304124509</v>
       </c>
       <c r="H11" t="n">
-        <v>251.371598334029</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.95159573488438</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>89.14004945323086</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>89.14004945321645</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>322.0367257177155</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>311.446875567391</v>
       </c>
       <c r="E14" t="n">
-        <v>338.6942040189703</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>128.7961571622749</v>
       </c>
       <c r="X14" t="n">
-        <v>326.4949346251776</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>97.09061980324181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>89.14004945321756</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>89.14004945323134</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>104.6278457870933</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>104.6278457870838</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.6278457870938</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>104.6278457870845</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24446,16 +24446,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>224.7472261647679</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24494,10 +24494,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>71.85007255546023</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24683,19 +24683,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>18.30522337102425</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>228.7929060764883</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.776444324159039e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>790599.3306328896</v>
+        <v>790599.3306328908</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>790599.3306328898</v>
+        <v>790599.3306328906</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>846449.9954033927</v>
+        <v>846449.9954033934</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>846449.9954033927</v>
+        <v>846449.9954033934</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859660.1933078578</v>
+        <v>859660.1933078574</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812370.727641715</v>
+        <v>812370.7276417119</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812370.7276417149</v>
+        <v>812370.7276417121</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860402.2560238508</v>
+        <v>860402.2560238498</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854986.5813411616</v>
+        <v>854986.5813411617</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854986.5813411617</v>
+        <v>854986.5813411616</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854986.5813411617</v>
+        <v>854986.5813411616</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698524</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
-        <v>593980.6846746363</v>
+        <v>593980.684674636</v>
       </c>
       <c r="E2" t="n">
-        <v>549713.081431121</v>
+        <v>549713.0814311216</v>
       </c>
       <c r="F2" t="n">
-        <v>549713.0814311211</v>
+        <v>549713.0814311212</v>
       </c>
       <c r="G2" t="n">
-        <v>589217.2101712323</v>
+        <v>589217.2101712339</v>
       </c>
       <c r="H2" t="n">
-        <v>589217.2101712319</v>
+        <v>589217.2101712327</v>
       </c>
       <c r="I2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="J2" t="n">
-        <v>561281.7630764361</v>
+        <v>561281.7630764347</v>
       </c>
       <c r="K2" t="n">
-        <v>561281.7630764364</v>
+        <v>561281.7630764346</v>
       </c>
       <c r="L2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="M2" t="n">
         <v>595255.2831516054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>595255.2831516056</v>
       </c>
       <c r="N2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>1139867.966489782</v>
+        <v>1139867.966489783</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487414</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7169.331421240448</v>
+        <v>7169.331421239723</v>
       </c>
       <c r="J3" t="n">
-        <v>1120.017379864317</v>
+        <v>1120.017379863398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71219.75587770878</v>
+        <v>71219.75587771015</v>
       </c>
       <c r="M3" t="n">
-        <v>206331.1882900696</v>
+        <v>206331.1882900697</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>455355.1034263055</v>
       </c>
       <c r="E4" t="n">
-        <v>57656.74939374402</v>
+        <v>57656.74939374453</v>
       </c>
       <c r="F4" t="n">
-        <v>57656.74939374402</v>
+        <v>57656.74939374454</v>
       </c>
       <c r="G4" t="n">
-        <v>88650.22373499972</v>
+        <v>88650.22373500007</v>
       </c>
       <c r="H4" t="n">
-        <v>88650.22373499969</v>
+        <v>88650.22373500008</v>
       </c>
       <c r="I4" t="n">
-        <v>93336.58191615055</v>
+        <v>93336.58191615048</v>
       </c>
       <c r="J4" t="n">
-        <v>66695.7219432111</v>
+        <v>66695.72194321013</v>
       </c>
       <c r="K4" t="n">
-        <v>66695.72194321107</v>
+        <v>66695.72194321013</v>
       </c>
       <c r="L4" t="n">
-        <v>93325.91130961225</v>
+        <v>93325.91130961233</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="N4" t="n">
         <v>93403.78684820639</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>77941.16180532746</v>
+        <v>77941.16180532752</v>
       </c>
       <c r="F5" t="n">
-        <v>77941.16180532746</v>
+        <v>77941.1618053275</v>
       </c>
       <c r="G5" t="n">
-        <v>81890.31456571589</v>
+        <v>81890.31456571598</v>
       </c>
       <c r="H5" t="n">
-        <v>81890.3145657159</v>
+        <v>81890.31456571598</v>
       </c>
       <c r="I5" t="n">
-        <v>83529.50571801834</v>
+        <v>83529.50571801825</v>
       </c>
       <c r="J5" t="n">
-        <v>80154.95054819921</v>
+        <v>80154.95054819886</v>
       </c>
       <c r="K5" t="n">
-        <v>80154.95054819919</v>
+        <v>80154.95054819886</v>
       </c>
       <c r="L5" t="n">
-        <v>83690.01485891461</v>
+        <v>83690.01485891441</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97197.01446774261</v>
+        <v>97192.60088987474</v>
       </c>
       <c r="C6" t="n">
-        <v>97197.01446774285</v>
+        <v>97192.60088987462</v>
       </c>
       <c r="D6" t="n">
-        <v>84787.30638543484</v>
+        <v>84782.91121827254</v>
       </c>
       <c r="E6" t="n">
-        <v>-725752.7962577324</v>
+        <v>-725909.8383326313</v>
       </c>
       <c r="F6" t="n">
-        <v>414115.1702320496</v>
+        <v>413958.128157151</v>
       </c>
       <c r="G6" t="n">
-        <v>381096.5625756427</v>
+        <v>381075.7416343321</v>
       </c>
       <c r="H6" t="n">
-        <v>418676.6718705162</v>
+        <v>418655.850929205</v>
       </c>
       <c r="I6" t="n">
-        <v>411219.8640961961</v>
+        <v>411219.864096197</v>
       </c>
       <c r="J6" t="n">
-        <v>413311.0732051615</v>
+        <v>413193.9231359376</v>
       </c>
       <c r="K6" t="n">
-        <v>414431.0905850261</v>
+        <v>414313.9405158009</v>
       </c>
       <c r="L6" t="n">
-        <v>347019.6011053698</v>
+        <v>347019.6011053687</v>
       </c>
       <c r="M6" t="n">
-        <v>213001.7107070797</v>
+        <v>213001.7107070795</v>
       </c>
       <c r="N6" t="n">
-        <v>419332.8989971493</v>
+        <v>419332.8989971491</v>
       </c>
       <c r="O6" t="n">
-        <v>419332.8989971494</v>
+        <v>419332.8989971491</v>
       </c>
       <c r="P6" t="n">
-        <v>419332.8989971493</v>
+        <v>419332.8989971492</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="F2" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="G2" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="H2" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="I2" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>858.3618361967406</v>
+        <v>858.3618361967382</v>
       </c>
       <c r="J4" t="n">
-        <v>862.6425282052113</v>
+        <v>862.6425282052056</v>
       </c>
       <c r="K4" t="n">
-        <v>862.6425282052113</v>
+        <v>862.6425282052056</v>
       </c>
       <c r="L4" t="n">
-        <v>862.6425282052113</v>
+        <v>862.6425282052056</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.02469484713598</v>
+        <v>89.0246948471377</v>
       </c>
       <c r="M2" t="n">
-        <v>8.660025380969131</v>
+        <v>8.66002538096734</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>26.96038079444816</v>
+        <v>26.96038079444543</v>
       </c>
       <c r="J4" t="n">
-        <v>4.280692008470737</v>
+        <v>4.28069200846744</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>800.1603825993737</v>
+        <v>800.1603825993798</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="C11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="D11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="E11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="F11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="G11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="H11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="T11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="U11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="V11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="W11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="X11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="C13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="D13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="E13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="F13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="G13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="H13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="I13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="J13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="K13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="L13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="M13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="N13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="O13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="P13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="R13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="S13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="T13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="U13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="V13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="W13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="X13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="C14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="D14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="E14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="F14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="G14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="H14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="T14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="U14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="V14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="W14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="X14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="C16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="D16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="E16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="F16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="G16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="H16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="I16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="J16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="K16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="L16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="M16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="N16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="O16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="P16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="R16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="S16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="T16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="U16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="V16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="W16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="X16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.23616605329146</v>
+        <v>43.23616605329201</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="C17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="D17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="E17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="F17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="G17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="H17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="T17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="U17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="V17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="W17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="X17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="C19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="D19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="E19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="F19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="H19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="I19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="T19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>37.38920503393354</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="X19" t="n">
-        <v>90.21130267188404</v>
+        <v>37.38920503392507</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="C20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="D20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="E20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="F20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="G20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="H20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="T20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="U20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="V20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="W20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="X20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="C22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="D22" t="n">
-        <v>38.66835503576995</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>38.66835503576227</v>
       </c>
       <c r="G22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="H22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="I22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="T22" t="n">
-        <v>90.21130267188404</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>90.21130267188404</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="W22" t="n">
-        <v>90.21130267188404</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="C23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="D23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="E23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="F23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="G23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="H23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="T23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="U23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="V23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="W23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="X23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="C25" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="D25" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="E25" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="F25" t="n">
-        <v>38.66835503577008</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>90.21130267188404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>90.21130267188404</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>90.21130267188404</v>
+        <v>38.66835503576223</v>
       </c>
       <c r="V25" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="W25" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="X25" t="n">
-        <v>90.21130267188404</v>
+        <v>90.21130267188468</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.21130267188404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="C32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="D32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="E32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="F32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="G32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="H32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="T32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="U32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="V32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="W32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="X32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="C34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="D34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="E34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="F34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="G34" t="n">
-        <v>89.02469484713596</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="I34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29955,25 +29955,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="T34" t="n">
-        <v>89.02469484713596</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>89.02469484713596</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="V34" t="n">
-        <v>89.02469484713596</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>89.02469484713761</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.72104110799853</v>
+        <v>51.72104110798043</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>54.14548214544355</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810509</v>
+        <v>46.72521440565396</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30381,22 +30381,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810509</v>
+        <v>46.72521440565379</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>55.47778196371038</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>46.72521440565241</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.72521440565299</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>54.14548214544337</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,19 +31513,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I8" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L8" t="n">
         <v>14.5997362345548</v>
@@ -31546,10 +31546,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T8" t="n">
         <v>0.4049892772318401</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H9" t="n">
         <v>0.4780704592104726</v>
@@ -31601,7 +31601,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K9" t="n">
         <v>7.993242550750212</v>
@@ -31619,7 +31619,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q9" t="n">
         <v>6.318693299210532</v>
@@ -31692,7 +31692,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O10" t="n">
         <v>5.865771705150827</v>
@@ -31710,7 +31710,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U10" t="n">
         <v>0.002263611411815345</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34448,10 +34448,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.81458266635767</v>
+        <v>88.81458266635823</v>
       </c>
       <c r="K13" t="n">
-        <v>249.283825597611</v>
+        <v>249.2838255976116</v>
       </c>
       <c r="L13" t="n">
-        <v>362.9935382234895</v>
+        <v>362.9935382234901</v>
       </c>
       <c r="M13" t="n">
-        <v>390.8695454467752</v>
+        <v>390.8695454467759</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0931122208315</v>
+        <v>388.0931122208321</v>
       </c>
       <c r="O13" t="n">
-        <v>345.5892962759312</v>
+        <v>345.5892962759318</v>
       </c>
       <c r="P13" t="n">
-        <v>278.1932371984018</v>
+        <v>278.1932371984025</v>
       </c>
       <c r="Q13" t="n">
-        <v>121.6304045911851</v>
+        <v>121.6304045911857</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.81458266635767</v>
+        <v>88.81458266635823</v>
       </c>
       <c r="K16" t="n">
-        <v>249.283825597611</v>
+        <v>249.2838255976116</v>
       </c>
       <c r="L16" t="n">
-        <v>362.9935382234896</v>
+        <v>362.9935382234901</v>
       </c>
       <c r="M16" t="n">
-        <v>390.8695454467752</v>
+        <v>390.8695454467759</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0931122208315</v>
+        <v>388.0931122208321</v>
       </c>
       <c r="O16" t="n">
-        <v>345.5892962759312</v>
+        <v>345.5892962759318</v>
       </c>
       <c r="P16" t="n">
-        <v>278.1932371984018</v>
+        <v>278.1932371984025</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.6304045911851</v>
+        <v>121.6304045911857</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>645.673330693092</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>505.5142010822265</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>248.7726067395883</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>662.6231414741075</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>314.4890266125707</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>579.2921400362127</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>662.6231414741075</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>631.7550265320779</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865553994</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597742</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
@@ -38096,10 +38096,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
